--- a/Covid_19_Dataset_and_References/References/79.xlsx
+++ b/Covid_19_Dataset_and_References/References/79.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="139">
   <si>
     <t>Doi</t>
   </si>
@@ -495,6 +495,54 @@
   </si>
   <si>
     <t>[T.‐H.%Lin%NULL%1,    F.‐C.%Tang%NULL%1,    P.‐C.%Hung%NULL%1,    Z.‐C.%Hua%NULL%1,    C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,     Stephen B.%Martin%NULL%1,     Robert E.%Thewlis%NULL%1,     Khachatur%Sarkisian%NULL%1,     Julian O.%Nwoko%NULL%1,     Kenneth R.%Mead%NULL%1,     John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%1,     Michael S.%Bergman%NULL%1,     Benjamin C.%Eimer%NULL%1,     Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,     Jessica L.%Williams%NULL%1,     Ronald E.%Shaffer%NULL%0,     Tom%Jefferson%NULL%2,     Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%4,      Kimberly%Kinney%null%2,      April E.%Lumley%null%2,      Delbert A.%Harnish%null%1,      Michael%Bergman%null%1,      Joseph D.%Wander%null%2,  Brian K.%Heimbuch%null%0,  Kimberly%Kinney%null%2,  April E.%Lumley%null%2,  Delbert A.%Harnish%null%1,  Michael%Bergman%null%1,  Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,     Delbert A.%Harnish%dharnish@ara.com%1,     Caryn%Lawrence%NULL%1,     Megan%Sandoval-Powers%NULL%1,     Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,      William H.%Wallace%null%1,      Kimberly%Kinney%null%0,      April E.%Lumley%null%0,      Chang-Yu%Wu%null%1,      Myung-Heui%Woo%null%1,      Joseph D.%Wander%null%0,  Brian K.%Heimbuch%null%0,  William H.%Wallace%null%1,  Kimberly%Kinney%null%0,  April E.%Lumley%null%0,  Chang-Yu%Wu%null%1,  Myung-Heui%Woo%null%1,  Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,     Ayush%Gupta%NULL%2,     Anand Kumar%Maurya%NULL%4,     Anand Kumar%Maurya%NULL%0,     Amitava%Mukherjee%NULL%22,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,     Ayush%Gupta%NULL%0,     Anand Kumar%Maurya%NULL%0,     Anand Kumar%Maurya%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,     R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,     K.%Kinney%NULL%1,     W.H.%Wallace%NULL%1,     A.E.%Lumley%NULL%1,     B.K.%Heimbuch%NULL%1,     J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,     Chih-Chieh%Chen%NULL%1,     Sheng-Hsiu%Huang%NULL%1,     Chung-Wen%Kuo%NULL%2,     Chung-Wen%Kuo%NULL%0,     Chane-Yu%Lai%NULL%1,     Wen-Yinn%Lin%NULL%1,     Amitava%Mukherjee%NULL%0,     Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,     F.‐C.%Tang%NULL%1,     P.‐C.%Hung%NULL%1,     Z.‐C.%Hua%NULL%1,     C.‐Y.%Lai%cylai511@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -819,6 +867,9 @@
       <c r="H1" t="s">
         <v>29</v>
       </c>
+      <c r="I1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -834,7 +885,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -844,6 +895,9 @@
       </c>
       <c r="H2" t="s">
         <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -871,6 +925,9 @@
       <c r="H3" t="s">
         <v>35</v>
       </c>
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -897,6 +954,9 @@
       <c r="H4" t="s">
         <v>35</v>
       </c>
+      <c r="I4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -912,7 +972,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -922,6 +982,9 @@
       </c>
       <c r="H5" t="s">
         <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6">
@@ -938,7 +1001,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -948,6 +1011,9 @@
       </c>
       <c r="H6" t="s">
         <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -964,7 +1030,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -974,6 +1040,9 @@
       </c>
       <c r="H7" t="s">
         <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -990,7 +1059,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1000,6 +1069,9 @@
       </c>
       <c r="H8" t="s">
         <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="9">
@@ -1016,7 +1088,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1026,6 +1098,9 @@
       </c>
       <c r="H9" t="s">
         <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -1053,6 +1128,9 @@
       <c r="H10" t="s">
         <v>35</v>
       </c>
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
@@ -1068,7 +1146,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1078,6 +1156,9 @@
       </c>
       <c r="H11" t="s">
         <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -1094,7 +1175,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1104,6 +1185,9 @@
       </c>
       <c r="H12" t="s">
         <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -1120,7 +1204,7 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -1130,6 +1214,9 @@
       </c>
       <c r="H13" t="s">
         <v>71</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -1157,6 +1244,9 @@
       <c r="H14" t="s">
         <v>35</v>
       </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -1183,6 +1273,9 @@
       <c r="H15" t="s">
         <v>35</v>
       </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -1198,7 +1291,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -1208,6 +1301,9 @@
       </c>
       <c r="H16" t="s">
         <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17">
@@ -1224,7 +1320,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -1234,6 +1330,9 @@
       </c>
       <c r="H17" t="s">
         <v>80</v>
+      </c>
+      <c r="I17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="18">
@@ -1250,7 +1349,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>
@@ -1260,6 +1359,9 @@
       </c>
       <c r="H18" t="s">
         <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/79.xlsx
+++ b/Covid_19_Dataset_and_References/References/79.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="175">
   <si>
     <t>Doi</t>
   </si>
@@ -543,6 +543,114 @@
   </si>
   <si>
     <t>[T.‐H.%Lin%NULL%1,     F.‐C.%Tang%NULL%1,     P.‐C.%Hung%NULL%1,     Z.‐C.%Hua%NULL%1,     C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,      Stephen B.%Martin%NULL%1,      Robert E.%Thewlis%NULL%1,      Khachatur%Sarkisian%NULL%1,      Julian O.%Nwoko%NULL%1,      Kenneth R.%Mead%NULL%1,      John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%1,      Michael S.%Bergman%NULL%1,      Benjamin C.%Eimer%NULL%1,      Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,      Jessica L.%Williams%NULL%1,      Ronald E.%Shaffer%NULL%0,      Tom%Jefferson%NULL%2,      Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,       Kimberly%Kinney%null%2,       April E.%Lumley%null%2,       Delbert A.%Harnish%null%1,       Michael%Bergman%null%1,       Joseph D.%Wander%null%2,   Brian K.%Heimbuch%null%2,   Kimberly%Kinney%null%2,   April E.%Lumley%null%2,   Delbert A.%Harnish%null%1,   Michael%Bergman%null%1,   Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,      Delbert A.%Harnish%dharnish@ara.com%1,      Caryn%Lawrence%NULL%1,      Megan%Sandoval-Powers%NULL%1,      Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,       William H.%Wallace%null%1,       Kimberly%Kinney%null%0,       April E.%Lumley%null%0,       Chang-Yu%Wu%null%1,       Myung-Heui%Woo%null%1,       Joseph D.%Wander%null%0,   Brian K.%Heimbuch%null%0,   William H.%Wallace%null%1,   Kimberly%Kinney%null%0,   April E.%Lumley%null%0,   Chang-Yu%Wu%null%1,   Myung-Heui%Woo%null%1,   Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,      Ayush%Gupta%NULL%2,      Anand Kumar%Maurya%NULL%4,      Anand Kumar%Maurya%NULL%0,      Amitava%Mukherjee%NULL%22,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,      Ayush%Gupta%NULL%0,      Anand Kumar%Maurya%NULL%0,      Anand Kumar%Maurya%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,      R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,      K.%Kinney%NULL%1,      W.H.%Wallace%NULL%1,      A.E.%Lumley%NULL%1,      B.K.%Heimbuch%NULL%1,      J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,      Chih-Chieh%Chen%NULL%1,      Sheng-Hsiu%Huang%NULL%1,      Chung-Wen%Kuo%NULL%2,      Chung-Wen%Kuo%NULL%0,      Chane-Yu%Lai%NULL%1,      Wen-Yinn%Lin%NULL%1,      Amitava%Mukherjee%NULL%0,      Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,      F.‐C.%Tang%NULL%1,      P.‐C.%Hung%NULL%1,      Z.‐C.%Hua%NULL%1,      C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,       Stephen B.%Martin%NULL%1,       Robert E.%Thewlis%NULL%1,       Khachatur%Sarkisian%NULL%1,       Julian O.%Nwoko%NULL%1,       Kenneth R.%Mead%NULL%1,       John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%1,       Michael S.%Bergman%NULL%1,       Benjamin C.%Eimer%NULL%1,       Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,       Jessica L.%Williams%NULL%1,       Ronald E.%Shaffer%NULL%0,       Tom%Jefferson%NULL%2,       Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,        Kimberly%Kinney%null%2,        April E.%Lumley%null%2,        Delbert A.%Harnish%null%1,        Michael%Bergman%null%1,        Joseph D.%Wander%null%2,    Brian K.%Heimbuch%null%2,    Kimberly%Kinney%null%2,    April E.%Lumley%null%2,    Delbert A.%Harnish%null%1,    Michael%Bergman%null%1,    Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,       Delbert A.%Harnish%dharnish@ara.com%1,       Caryn%Lawrence%NULL%1,       Megan%Sandoval-Powers%NULL%1,       Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,        William H.%Wallace%null%1,        Kimberly%Kinney%null%0,        April E.%Lumley%null%0,        Chang-Yu%Wu%null%1,        Myung-Heui%Woo%null%1,        Joseph D.%Wander%null%0,    Brian K.%Heimbuch%null%0,    William H.%Wallace%null%1,    Kimberly%Kinney%null%0,    April E.%Lumley%null%0,    Chang-Yu%Wu%null%1,    Myung-Heui%Woo%null%1,    Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,       Ayush%Gupta%NULL%2,       Anand Kumar%Maurya%NULL%4,       Anand Kumar%Maurya%NULL%0,       Amitava%Mukherjee%NULL%22,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,       Ayush%Gupta%NULL%0,       Anand Kumar%Maurya%NULL%0,       Anand Kumar%Maurya%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,       R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,       K.%Kinney%NULL%1,       W.H.%Wallace%NULL%1,       A.E.%Lumley%NULL%1,       B.K.%Heimbuch%NULL%1,       J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,       Chih-Chieh%Chen%NULL%1,       Sheng-Hsiu%Huang%NULL%1,       Chung-Wen%Kuo%NULL%2,       Chung-Wen%Kuo%NULL%0,       Chane-Yu%Lai%NULL%1,       Wen-Yinn%Lin%NULL%1,       Amitava%Mukherjee%NULL%0,       Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,       F.‐C.%Tang%NULL%1,       P.‐C.%Hung%NULL%1,       Z.‐C.%Hua%NULL%1,       C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,        Stephen B.%Martin%NULL%1,        Robert E.%Thewlis%NULL%1,        Khachatur%Sarkisian%NULL%1,        Julian O.%Nwoko%NULL%1,        Kenneth R.%Mead%NULL%1,        John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%1,        Michael S.%Bergman%NULL%1,        Benjamin C.%Eimer%NULL%1,        Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,        Jessica L.%Williams%NULL%1,        Ronald E.%Shaffer%NULL%0,        Tom%Jefferson%NULL%2,        Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,         Kimberly%Kinney%null%2,         April E.%Lumley%null%2,         Delbert A.%Harnish%null%1,         Michael%Bergman%null%1,         Joseph D.%Wander%null%2,     Brian K.%Heimbuch%null%2,     Kimberly%Kinney%null%2,     April E.%Lumley%null%2,     Delbert A.%Harnish%null%1,     Michael%Bergman%null%1,     Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,        Delbert A.%Harnish%dharnish@ara.com%1,        Caryn%Lawrence%NULL%1,        Megan%Sandoval-Powers%NULL%1,        Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,         William H.%Wallace%null%1,         Kimberly%Kinney%null%0,         April E.%Lumley%null%0,         Chang-Yu%Wu%null%1,         Myung-Heui%Woo%null%1,         Joseph D.%Wander%null%0,     Brian K.%Heimbuch%null%0,     William H.%Wallace%null%1,     Kimberly%Kinney%null%0,     April E.%Lumley%null%0,     Chang-Yu%Wu%null%1,     Myung-Heui%Woo%null%1,     Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,        Ayush%Gupta%NULL%2,        Anand Kumar%Maurya%NULL%4,        Anand Kumar%Maurya%NULL%0,        Amitava%Mukherjee%NULL%22,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,        Ayush%Gupta%NULL%0,        Anand Kumar%Maurya%NULL%0,        Anand Kumar%Maurya%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,        R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,        K.%Kinney%NULL%1,        W.H.%Wallace%NULL%1,        A.E.%Lumley%NULL%1,        B.K.%Heimbuch%NULL%1,        J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,        Chih-Chieh%Chen%NULL%1,        Sheng-Hsiu%Huang%NULL%1,        Chung-Wen%Kuo%NULL%2,        Chung-Wen%Kuo%NULL%0,        Chane-Yu%Lai%NULL%1,        Wen-Yinn%Lin%NULL%1,        Amitava%Mukherjee%NULL%0,        Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,        F.‐C.%Tang%NULL%1,        P.‐C.%Hung%NULL%1,        Z.‐C.%Hua%NULL%1,        C.‐Y.%Lai%cylai511@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -885,7 +993,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -972,7 +1080,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1001,7 +1109,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1030,7 +1138,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1059,7 +1167,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1088,7 +1196,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1146,7 +1254,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1175,7 +1283,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1204,7 +1312,7 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -1291,7 +1399,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -1320,7 +1428,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -1349,7 +1457,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/79.xlsx
+++ b/Covid_19_Dataset_and_References/References/79.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="220">
   <si>
     <t>Doi</t>
   </si>
@@ -651,6 +651,173 @@
   </si>
   <si>
     <t>[T.‐H.%Lin%NULL%1,        F.‐C.%Tang%NULL%1,        P.‐C.%Hung%NULL%1,        Z.‐C.%Hua%NULL%1,        C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,         Stephen B.%Martin%NULL%1,         Robert E.%Thewlis%NULL%1,         Khachatur%Sarkisian%NULL%1,         Julian O.%Nwoko%NULL%1,         Kenneth R.%Mead%NULL%1,         John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Evaluation of Multiple (3-Cycle) Decontamination Processing for Filtering Facepiece Respirators"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" Disposable N95 filtering facepiece respirators (FFRs) certified by the National Institute for Occupational Safety and Health (NIOSH) are widely used by healthcare workers to reduce exposures to infectious biological aerosols.
+ There is currently major concern among public health officials about a possible shortage of N95 FFRs during an influenza pandemic.
+ Decontamination and reuse of FFRs is a possible strategy for extending FFR supplies in an emergency; however, the NIOSH respirator certification process does not currently include provisions for decontamination and reuse.
+ Recent studies have investigated the laboratory performance (filter aerosol penetration and filter airflow resistance) and physical integrity of FFRs following one-cycle (1X) processing of various decontamination treatments.
+ The studies found that a single application of some methods did not adversely affect laboratory performance.
+ In the event that healthcare facilities experience dramatic shortages of FFR supplies, multiple decontamination processing may become necessary.
+ This study investigates three-cycle (3X) processing of eight different methods: ultraviolet germicidal irradiation, ethylene oxide, hydrogen peroxide gas plasma, hydrogen peroxide vapor, microwave-oven-generated steam, bleach, liquid hydrogen peroxide, and moist heat incubation (pasteurization).
+ A four-hour 3X submersion of FFR in deionized water was performed for comparison (control).
+ Following 3X treatment by each decontamination and control method, FFRs were evaluated for changes in physical appearance, odor, and laboratory filtration performance.
+ Only the hydrogen peroxide gas plasma treatment resulted in mean penetration levels &amp;gt; 5% for four of the six FFR models; FFRs treated by the seven other methods and the control samples had expected levels of filter aerosol penetration (&amp;lt; 5%) and filter airflow resistance.
+ Physical damage varied by treatment method.
+ Further research is still needed before any specific decontamination methods can be recommended.
+ </t>
+  </si>
+  <si>
+    <t>[Michael S.%Bergman%xref no email%2, Dennis J.%Viscusi%xref no email%0, Brian K.%Heimbuch%xref no email%1, Joseph D.%Wander%xref no email%1, Anthony R.%Sambol%xref no email%1, Ronald E.%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-09</t>
+  </si>
+  <si>
+    <t>"Effectiveness of Three Decontamination Treatments against Influenza Virus Applied to Filtering Facepiece Respirators"</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%3,         Michael S.%Bergman%NULL%1,         Benjamin C.%Eimer%NULL%1,         Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,         Jessica L.%Williams%NULL%1,         Ronald E.%Shaffer%NULL%0,         Tom%Jefferson%NULL%2,         Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,          Kimberly%Kinney%null%2,          April E.%Lumley%null%2,          Delbert A.%Harnish%null%1,          Michael%Bergman%null%1,          Joseph D.%Wander%null%2,      Brian K.%Heimbuch%null%2,      Kimberly%Kinney%null%2,      April E.%Lumley%null%2,      Delbert A.%Harnish%null%1,      Michael%Bergman%null%1,      Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,         Delbert A.%Harnish%dharnish@ara.com%1,         Caryn%Lawrence%NULL%1,         Megan%Sandoval-Powers%NULL%1,         Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,          William H.%Wallace%null%1,          Kimberly%Kinney%null%0,          April E.%Lumley%null%0,          Chang-Yu%Wu%null%1,          Myung-Heui%Woo%null%1,          Joseph D.%Wander%null%0,      Brian K.%Heimbuch%null%0,      William H.%Wallace%null%1,      Kimberly%Kinney%null%0,      April E.%Lumley%null%0,      Chang-Yu%Wu%null%1,      Myung-Heui%Woo%null%1,      Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>"Impact of Three Biological Decontamination Methods on Filtering Facepiece Respirator Fit, Odor, Comfort, and Donning Ease"</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%xref no email%0, Michael S.%Bergman%xref no email%0, Debra A.%Novak%xref no email%1, Kimberly A.%Faulkner%xref no email%1, Andrew%Palmiero%xref no email%1, Jeffrey%Powell%xref no email%1, Ronald E.%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-04-27</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,         Ayush%Gupta%NULL%2,         Anand Kumar%Maurya%NULL%4,         Anand Kumar%Maurya%NULL%0,         Amitava%Mukherjee%NULL%22,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,         Ayush%Gupta%NULL%0,         Anand Kumar%Maurya%NULL%0,         Anand Kumar%Maurya%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,         R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Development of a Test System To Evaluate Procedures for Decontamination of Respirators Containing Viral Droplets"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ABSTRACT\n          \n            The aim of this study was to develop a test system to evaluate the effectiveness of procedures for decontamination of respirators contaminated with viral droplets.
+ MS2 coliphage was used as a surrogate for pathogenic viruses.
+ A viral droplet test system was constructed, and the size distribution of viral droplets loaded directly onto respirators was characterized using an aerodynamic particle sizer.
+ The sizes ranged from 0.5 to 15 \u03bcm, and the sizes of the majority of the droplets were the range from 0.74 to 3.5 \u03bcm.
+ The results also showed that the droplet test system generated similar droplet concentrations (particle counts) at different respirator locations.
+ The test system was validated by studying the relative efficiencies of decontamination of sodium hypochlorite (bleach) and UV irradiation with droplets containing MS2 virus on filtering facepiece respirators.
+ It was hypothesized that more potent decontamination treatments would result in corresponding larger decreases in the number of viable viruses recovered from the respirators.
+ Sodium hypochlorite doses of 2.75 to 5.50 mg\/liter with a 10-min decontamination period resulted in approximately 3- to 4-log reductions in the level of MS2 coliphage.
+ When higher sodium hypochlorite doses (\u22658.25 mg\/liter) were used with the same contact time that was used for the dilute solutions containing 2.75 to 5.50 mg\/liter, all MS2 was inactivated.
+ For UV decontamination at a wavelength of 254 nm, an approximately 3-log reduction in the level of MS2 virus was achieved with dose of 4.32 J\/cm\n            2\n            (3 h of contact time with a UV intensity of 0.4 mW\/cm\n            2\n            ), while with higher doses of UV irradiation (\u22657.20 J\/cm\n            2\n            ; UV intensity, 0.4 mW\/cm\n            2\n            ; contact times, \u22655 h), all MS2 was inactivated.
+ These findings may lead to development of a standard method to test decontamination of respirators challenged by viral droplets.
+\n          </t>
+  </si>
+  <si>
+    <t>[Evanly%Vo%xref no email%2, Samy%Rengasamy%xref no email%2, Ronald%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>"Development of a Test System To Apply Virus-Containing Particles to Filtering Facepiece Respirators for the Evaluation of Decontamination Procedures"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ABSTRACT\n          \n            A chamber to apply aerosolized virus-containing particles to air-permeable substrates (coupons) was constructed and validated as part of a method to assess the virucidal efficacy of decontamination procedures for filtering facepiece respirators.
+ Coliphage MS2 was used as a surrogate for pathogenic viruses for confirmation of the efficacy of the bioaerosol respirator test system.
+ The distribution of virus applied onto and within the coupons was characterized, and the repeatability of applying a targeted virus load was examined.
+ The average viable virus loaded onto 90 coupons over the course of 5 days was found to be 5.09 \u00b1 0.19 log\n            10\n            PFU\/coupon (relative standard deviation, 4%).
+ To determine the ability to differentiate the effectiveness of disinfecting procedures with different levels of performance, sodium hypochlorite and steam treatments were tested in experiments by varying the dose and time, respectively.
+ The role of protective factors was assessed by aerosolizing the virus with various concentrations of the aerosol-generating medium.
+ A sodium hypochlorite (bleach) concentration of 0.6% and steam treatments of 45 s and longer resulted in log reductions (&amp;gt;4 logs) which reached the detection limits for both levels of protective factors.
+ Organic matter (ATCC medium 271) as a protective factor afforded some protection to the virus in the sodium hypochlorite experiments but was not a factor in the steam experiments.
+ The evaluation of the bioaerosol respirator test system demonstrated a repeatable method for applying a targeted viral load onto respirator coupons and provided insight into the properties of aerosols that are of importance to the development of disinfection assays for air-permeable materials.
+\n          </t>
+  </si>
+  <si>
+    <t>[Edward%Fisher%xref no email%1, Samy%Rengasamy%xref no email%0, Dennis%Viscusi%xref no email%1, Evanly%Vo%xref no email%0, Ronald%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,         K.%Kinney%NULL%1,         W.H.%Wallace%NULL%1,         A.E.%Lumley%NULL%1,         B.K.%Heimbuch%NULL%1,         J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,         Chih-Chieh%Chen%NULL%1,         Sheng-Hsiu%Huang%NULL%1,         Chung-Wen%Kuo%NULL%2,         Chung-Wen%Kuo%NULL%0,         Chane-Yu%Lai%NULL%1,         Wen-Yinn%Lin%NULL%1,         Amitava%Mukherjee%NULL%0,         Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,         F.‐C.%Tang%NULL%1,         P.‐C.%Hung%NULL%1,         Z.‐C.%Hua%NULL%1,         C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,          Stephen B.%Martin%NULL%1,          Robert E.%Thewlis%NULL%1,          Khachatur%Sarkisian%NULL%1,          Julian O.%Nwoko%NULL%1,          Kenneth R.%Mead%NULL%1,          John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Bergman%xref no email%1,  Dennis J.%Viscusi%xref no email%1,  Brian K.%Heimbuch%xref no email%3,  Joseph D.%Wander%xref no email%1,  Anthony R.%Sambol%xref no email%1,  Ronald E.%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,          Michael S.%Bergman%NULL%1,          Benjamin C.%Eimer%NULL%1,          Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,          Jessica L.%Williams%NULL%1,          Ronald E.%Shaffer%NULL%0,          Tom%Jefferson%NULL%2,          Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,           Kimberly%Kinney%null%2,           April E.%Lumley%null%2,           Delbert A.%Harnish%null%1,           Michael%Bergman%null%1,           Joseph D.%Wander%null%2,       Brian K.%Heimbuch%null%2,       Kimberly%Kinney%null%2,       April E.%Lumley%null%2,       Delbert A.%Harnish%null%1,       Michael%Bergman%null%1,       Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,          Delbert A.%Harnish%dharnish@ara.com%1,          Caryn%Lawrence%NULL%1,          Megan%Sandoval-Powers%NULL%1,          Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,           William H.%Wallace%null%1,           Kimberly%Kinney%null%0,           April E.%Lumley%null%0,           Chang-Yu%Wu%null%1,           Myung-Heui%Woo%null%1,           Joseph D.%Wander%null%0,       Brian K.%Heimbuch%null%0,       William H.%Wallace%null%1,       Kimberly%Kinney%null%0,       April E.%Lumley%null%0,       Chang-Yu%Wu%null%1,       Myung-Heui%Woo%null%1,       Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%xref no email%0,  Michael S.%Bergman%xref no email%1,  Debra A.%Novak%xref no email%1,  Kimberly A.%Faulkner%xref no email%1,  Andrew%Palmiero%xref no email%1,  Jeffrey%Powell%xref no email%1,  Ronald E.%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,          Ayush%Gupta%NULL%2,          Anand Kumar%Maurya%NULL%4,          Anand Kumar%Maurya%NULL%0,          Amitava%Mukherjee%NULL%22,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,          Ayush%Gupta%NULL%0,          Anand Kumar%Maurya%NULL%0,          Anand Kumar%Maurya%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,          R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evanly%Vo%xref no email%1,  Samy%Rengasamy%xref no email%2,  Ronald%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Edward%Fisher%xref no email%1,  Samy%Rengasamy%xref no email%0,  Dennis%Viscusi%xref no email%1,  Evanly%Vo%xref no email%1,  Ronald%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,          K.%Kinney%NULL%1,          W.H.%Wallace%NULL%1,          A.E.%Lumley%NULL%1,          B.K.%Heimbuch%NULL%1,          J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,          Chih-Chieh%Chen%NULL%1,          Sheng-Hsiu%Huang%NULL%1,          Chung-Wen%Kuo%NULL%2,          Chung-Wen%Kuo%NULL%0,          Chane-Yu%Lai%NULL%1,          Wen-Yinn%Lin%NULL%1,          Amitava%Mukherjee%NULL%0,          Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,          F.‐C.%Tang%NULL%1,          P.‐C.%Hung%NULL%1,          Z.‐C.%Hua%NULL%1,          C.‐Y.%Lai%cylai511@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1160,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1016,22 +1183,22 @@
         <v>40513.0</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="I3" t="s">
         <v>126</v>
@@ -1045,7 +1212,7 @@
         <v>40909.0</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -1054,13 +1221,13 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="I4" t="s">
         <v>126</v>
@@ -1080,7 +1247,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1109,7 +1276,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1138,7 +1305,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1167,7 +1334,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1196,7 +1363,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1219,22 +1386,22 @@
         <v>40725.0</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="I10" t="s">
         <v>126</v>
@@ -1254,7 +1421,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1283,7 +1450,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1312,7 +1479,7 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -1335,22 +1502,22 @@
         <v>40148.0</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="I14" t="s">
         <v>126</v>
@@ -1364,22 +1531,22 @@
         <v>39873.0</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="I15" t="s">
         <v>126</v>
@@ -1399,7 +1566,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -1428,7 +1595,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -1457,7 +1624,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/79.xlsx
+++ b/Covid_19_Dataset_and_References/References/79.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="252">
   <si>
     <t>Doi</t>
   </si>
@@ -818,6 +818,102 @@
   </si>
   <si>
     <t>[T.‐H.%Lin%NULL%1,          F.‐C.%Tang%NULL%1,          P.‐C.%Hung%NULL%1,          Z.‐C.%Hua%NULL%1,          C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,           Stephen B.%Martin%NULL%1,           Robert E.%Thewlis%NULL%1,           Khachatur%Sarkisian%NULL%1,           Julian O.%Nwoko%NULL%1,           Kenneth R.%Mead%NULL%1,           John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Bergman%xref no email%1,   Dennis J.%Viscusi%xref no email%1,   Brian K.%Heimbuch%xref no email%1,   Joseph D.%Wander%xref no email%1,   Anthony R.%Sambol%xref no email%1,   Ronald E.%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,           Michael S.%Bergman%NULL%1,           Benjamin C.%Eimer%NULL%1,           Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,           Jessica L.%Williams%NULL%1,           Ronald E.%Shaffer%NULL%0,           Tom%Jefferson%NULL%2,           Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,            Kimberly%Kinney%null%2,            April E.%Lumley%null%2,            Delbert A.%Harnish%null%1,            Michael%Bergman%null%1,            Joseph D.%Wander%null%2,        Brian K.%Heimbuch%null%2,        Kimberly%Kinney%null%2,        April E.%Lumley%null%2,        Delbert A.%Harnish%null%1,        Michael%Bergman%null%1,        Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,           Delbert A.%Harnish%dharnish@ara.com%1,           Caryn%Lawrence%NULL%1,           Megan%Sandoval-Powers%NULL%1,           Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,            William H.%Wallace%null%1,            Kimberly%Kinney%null%0,            April E.%Lumley%null%0,            Chang-Yu%Wu%null%1,            Myung-Heui%Woo%null%1,            Joseph D.%Wander%null%0,        Brian K.%Heimbuch%null%0,        William H.%Wallace%null%1,        Kimberly%Kinney%null%0,        April E.%Lumley%null%0,        Chang-Yu%Wu%null%1,        Myung-Heui%Woo%null%1,        Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%xref no email%0,   Michael S.%Bergman%xref no email%1,   Debra A.%Novak%xref no email%1,   Kimberly A.%Faulkner%xref no email%1,   Andrew%Palmiero%xref no email%1,   Jeffrey%Powell%xref no email%1,   Ronald E.%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,           Ayush%Gupta%NULL%2,           Anand Kumar%Maurya%NULL%4,           Anand Kumar%Maurya%NULL%0,           Amitava%Mukherjee%NULL%22,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,           Ayush%Gupta%NULL%0,           Anand Kumar%Maurya%NULL%0,           Anand Kumar%Maurya%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,           R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evanly%Vo%xref no email%1,   Samy%Rengasamy%xref no email%2,   Ronald%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Edward%Fisher%xref no email%1,   Samy%Rengasamy%xref no email%0,   Dennis%Viscusi%xref no email%1,   Evanly%Vo%xref no email%1,   Ronald%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,           K.%Kinney%NULL%1,           W.H.%Wallace%NULL%1,           A.E.%Lumley%NULL%1,           B.K.%Heimbuch%NULL%1,           J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,           Chih-Chieh%Chen%NULL%1,           Sheng-Hsiu%Huang%NULL%1,           Chung-Wen%Kuo%NULL%2,           Chung-Wen%Kuo%NULL%0,           Chane-Yu%Lai%NULL%1,           Wen-Yinn%Lin%NULL%1,           Amitava%Mukherjee%NULL%0,           Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,           F.‐C.%Tang%NULL%1,           P.‐C.%Hung%NULL%1,           Z.‐C.%Hua%NULL%1,           C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,            Stephen B.%Martin%NULL%1,            Robert E.%Thewlis%NULL%1,            Khachatur%Sarkisian%NULL%1,            Julian O.%Nwoko%NULL%1,            Kenneth R.%Mead%NULL%1,            John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Bergman%xref no email%1,    Dennis J.%Viscusi%xref no email%1,    Brian K.%Heimbuch%xref no email%1,    Joseph D.%Wander%xref no email%1,    Anthony R.%Sambol%xref no email%1,    Ronald E.%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,            Michael S.%Bergman%NULL%1,            Benjamin C.%Eimer%NULL%1,            Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,            Jessica L.%Williams%NULL%1,            Ronald E.%Shaffer%NULL%0,            Tom%Jefferson%NULL%2,            Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,             Kimberly%Kinney%null%2,             April E.%Lumley%null%2,             Delbert A.%Harnish%null%1,             Michael%Bergman%null%1,             Joseph D.%Wander%null%2,         Brian K.%Heimbuch%null%2,         Kimberly%Kinney%null%2,         April E.%Lumley%null%2,         Delbert A.%Harnish%null%1,         Michael%Bergman%null%1,         Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,            Delbert A.%Harnish%dharnish@ara.com%1,            Caryn%Lawrence%NULL%1,            Megan%Sandoval-Powers%NULL%1,            Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,             William H.%Wallace%null%1,             Kimberly%Kinney%null%0,             April E.%Lumley%null%0,             Chang-Yu%Wu%null%1,             Myung-Heui%Woo%null%1,             Joseph D.%Wander%null%0,         Brian K.%Heimbuch%null%0,         William H.%Wallace%null%1,         Kimberly%Kinney%null%0,         April E.%Lumley%null%0,         Chang-Yu%Wu%null%1,         Myung-Heui%Woo%null%1,         Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%xref no email%0,    Michael S.%Bergman%xref no email%1,    Debra A.%Novak%xref no email%1,    Kimberly A.%Faulkner%xref no email%1,    Andrew%Palmiero%xref no email%1,    Jeffrey%Powell%xref no email%1,    Ronald E.%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,            Ayush%Gupta%NULL%2,            Anand Kumar%Maurya%NULL%4,            Anand Kumar%Maurya%NULL%0,            Amitava%Mukherjee%NULL%22,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,            Ayush%Gupta%NULL%0,            Anand Kumar%Maurya%NULL%0,            Anand Kumar%Maurya%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,            R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evanly%Vo%xref no email%1,    Samy%Rengasamy%xref no email%2,    Ronald%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Edward%Fisher%xref no email%1,    Samy%Rengasamy%xref no email%0,    Dennis%Viscusi%xref no email%1,    Evanly%Vo%xref no email%1,    Ronald%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,            K.%Kinney%NULL%1,            W.H.%Wallace%NULL%1,            A.E.%Lumley%NULL%1,            B.K.%Heimbuch%NULL%1,            J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,            Chih-Chieh%Chen%NULL%1,            Sheng-Hsiu%Huang%NULL%1,            Chung-Wen%Kuo%NULL%2,            Chung-Wen%Kuo%NULL%0,            Chane-Yu%Lai%NULL%1,            Wen-Yinn%Lin%NULL%1,            Amitava%Mukherjee%NULL%0,            Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,            F.‐C.%Tang%NULL%1,            P.‐C.%Hung%NULL%1,            Z.‐C.%Hua%NULL%1,            C.‐Y.%Lai%cylai511@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1256,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1189,7 +1285,7 @@
         <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1247,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1276,7 +1372,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1305,7 +1401,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1334,7 +1430,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1363,7 +1459,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1392,7 +1488,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1421,7 +1517,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1450,7 +1546,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1479,7 +1575,7 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -1508,7 +1604,7 @@
         <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1537,7 +1633,7 @@
         <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1566,7 +1662,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -1595,7 +1691,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -1624,7 +1720,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/79.xlsx
+++ b/Covid_19_Dataset_and_References/References/79.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="284">
   <si>
     <t>Doi</t>
   </si>
@@ -914,6 +914,102 @@
   </si>
   <si>
     <t>[T.‐H.%Lin%NULL%1,            F.‐C.%Tang%NULL%1,            P.‐C.%Hung%NULL%1,            Z.‐C.%Hua%NULL%1,            C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,             Stephen B.%Martin%NULL%1,             Robert E.%Thewlis%NULL%1,             Khachatur%Sarkisian%NULL%1,             Julian O.%Nwoko%NULL%1,             Kenneth R.%Mead%NULL%1,             John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Bergman%xref no email%1,     Dennis J.%Viscusi%xref no email%1,     Brian K.%Heimbuch%xref no email%1,     Joseph D.%Wander%xref no email%1,     Anthony R.%Sambol%xref no email%1,     Ronald E.%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,             Michael S.%Bergman%NULL%1,             Benjamin C.%Eimer%NULL%1,             Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,             Jessica L.%Williams%NULL%1,             Ronald E.%Shaffer%NULL%0,             Tom%Jefferson%NULL%2,             Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,              Kimberly%Kinney%null%2,              April E.%Lumley%null%2,              Delbert A.%Harnish%null%1,              Michael%Bergman%null%1,              Joseph D.%Wander%null%2,          Brian K.%Heimbuch%null%2,          Kimberly%Kinney%null%2,          April E.%Lumley%null%2,          Delbert A.%Harnish%null%1,          Michael%Bergman%null%1,          Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,             Delbert A.%Harnish%dharnish@ara.com%1,             Caryn%Lawrence%NULL%1,             Megan%Sandoval-Powers%NULL%1,             Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,              William H.%Wallace%null%1,              Kimberly%Kinney%null%0,              April E.%Lumley%null%0,              Chang-Yu%Wu%null%1,              Myung-Heui%Woo%null%1,              Joseph D.%Wander%null%0,          Brian K.%Heimbuch%null%0,          William H.%Wallace%null%1,          Kimberly%Kinney%null%0,          April E.%Lumley%null%0,          Chang-Yu%Wu%null%1,          Myung-Heui%Woo%null%1,          Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%xref no email%0,     Michael S.%Bergman%xref no email%1,     Debra A.%Novak%xref no email%1,     Kimberly A.%Faulkner%xref no email%1,     Andrew%Palmiero%xref no email%1,     Jeffrey%Powell%xref no email%1,     Ronald E.%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,             Ayush%Gupta%NULL%2,             Anand Kumar%Maurya%NULL%4,             Anand Kumar%Maurya%NULL%0,             Amitava%Mukherjee%NULL%22,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,             Ayush%Gupta%NULL%0,             Anand Kumar%Maurya%NULL%0,             Anand Kumar%Maurya%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,             R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evanly%Vo%xref no email%1,     Samy%Rengasamy%xref no email%2,     Ronald%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Edward%Fisher%xref no email%1,     Samy%Rengasamy%xref no email%0,     Dennis%Viscusi%xref no email%1,     Evanly%Vo%xref no email%1,     Ronald%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,             K.%Kinney%NULL%1,             W.H.%Wallace%NULL%1,             A.E.%Lumley%NULL%1,             B.K.%Heimbuch%NULL%1,             J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,             Chih-Chieh%Chen%NULL%1,             Sheng-Hsiu%Huang%NULL%1,             Chung-Wen%Kuo%NULL%2,             Chung-Wen%Kuo%NULL%0,             Chane-Yu%Lai%NULL%1,             Wen-Yinn%Lin%NULL%1,             Amitava%Mukherjee%NULL%0,             Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,             F.‐C.%Tang%NULL%1,             P.‐C.%Hung%NULL%1,             Z.‐C.%Hua%NULL%1,             C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,              Stephen B.%Martin%NULL%1,              Robert E.%Thewlis%NULL%1,              Khachatur%Sarkisian%NULL%1,              Julian O.%Nwoko%NULL%1,              Kenneth R.%Mead%NULL%1,              John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Bergman%xref no email%1,      Dennis J.%Viscusi%xref no email%1,      Brian K.%Heimbuch%xref no email%1,      Joseph D.%Wander%xref no email%1,      Anthony R.%Sambol%xref no email%1,      Ronald E.%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,              Michael S.%Bergman%NULL%1,              Benjamin C.%Eimer%NULL%1,              Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,              Jessica L.%Williams%NULL%1,              Ronald E.%Shaffer%NULL%0,              Tom%Jefferson%NULL%2,              Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,               Kimberly%Kinney%null%2,               April E.%Lumley%null%2,               Delbert A.%Harnish%null%1,               Michael%Bergman%null%1,               Joseph D.%Wander%null%2,           Brian K.%Heimbuch%null%2,           Kimberly%Kinney%null%2,           April E.%Lumley%null%2,           Delbert A.%Harnish%null%1,           Michael%Bergman%null%1,           Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,              Delbert A.%Harnish%dharnish@ara.com%1,              Caryn%Lawrence%NULL%1,              Megan%Sandoval-Powers%NULL%1,              Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,               William H.%Wallace%null%1,               Kimberly%Kinney%null%0,               April E.%Lumley%null%0,               Chang-Yu%Wu%null%1,               Myung-Heui%Woo%null%1,               Joseph D.%Wander%null%0,           Brian K.%Heimbuch%null%0,           William H.%Wallace%null%1,           Kimberly%Kinney%null%0,           April E.%Lumley%null%0,           Chang-Yu%Wu%null%1,           Myung-Heui%Woo%null%1,           Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%xref no email%0,      Michael S.%Bergman%xref no email%1,      Debra A.%Novak%xref no email%1,      Kimberly A.%Faulkner%xref no email%1,      Andrew%Palmiero%xref no email%1,      Jeffrey%Powell%xref no email%1,      Ronald E.%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,              Ayush%Gupta%NULL%2,              Anand Kumar%Maurya%NULL%4,              Anand Kumar%Maurya%NULL%0,              Amitava%Mukherjee%NULL%22,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,              Ayush%Gupta%NULL%0,              Anand Kumar%Maurya%NULL%0,              Anand Kumar%Maurya%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,              R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evanly%Vo%xref no email%1,      Samy%Rengasamy%xref no email%2,      Ronald%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Edward%Fisher%xref no email%1,      Samy%Rengasamy%xref no email%0,      Dennis%Viscusi%xref no email%1,      Evanly%Vo%xref no email%1,      Ronald%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,              K.%Kinney%NULL%1,              W.H.%Wallace%NULL%1,              A.E.%Lumley%NULL%1,              B.K.%Heimbuch%NULL%1,              J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,              Chih-Chieh%Chen%NULL%1,              Sheng-Hsiu%Huang%NULL%1,              Chung-Wen%Kuo%NULL%2,              Chung-Wen%Kuo%NULL%0,              Chane-Yu%Lai%NULL%1,              Wen-Yinn%Lin%NULL%1,              Amitava%Mukherjee%NULL%0,              Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,              F.‐C.%Tang%NULL%1,              P.‐C.%Hung%NULL%1,              Z.‐C.%Hua%NULL%1,              C.‐Y.%Lai%cylai511@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1352,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1285,7 +1381,7 @@
         <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1343,7 +1439,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1372,7 +1468,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1401,7 +1497,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1430,7 +1526,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1459,7 +1555,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1488,7 +1584,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1517,7 +1613,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1546,7 +1642,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1575,7 +1671,7 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -1604,7 +1700,7 @@
         <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1633,7 +1729,7 @@
         <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1662,7 +1758,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -1691,7 +1787,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -1720,7 +1816,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/79.xlsx
+++ b/Covid_19_Dataset_and_References/References/79.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="300">
   <si>
     <t>Doi</t>
   </si>
@@ -1010,6 +1010,54 @@
   </si>
   <si>
     <t>[T.‐H.%Lin%NULL%1,              F.‐C.%Tang%NULL%1,              P.‐C.%Hung%NULL%1,              Z.‐C.%Hua%NULL%1,              C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,               Stephen B.%Martin%NULL%1,               Robert E.%Thewlis%NULL%1,               Khachatur%Sarkisian%NULL%1,               Julian O.%Nwoko%NULL%1,               Kenneth R.%Mead%NULL%1,               John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Bergman%xref no email%1,       Dennis J.%Viscusi%xref no email%1,       Brian K.%Heimbuch%xref no email%1,       Joseph D.%Wander%xref no email%1,       Anthony R.%Sambol%xref no email%1,       Ronald E.%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,               Michael S.%Bergman%NULL%1,               Benjamin C.%Eimer%NULL%1,               Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,               Jessica L.%Williams%NULL%1,               Ronald E.%Shaffer%NULL%0,               Tom%Jefferson%NULL%2,               Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,                Kimberly%Kinney%null%2,                April E.%Lumley%null%2,                Delbert A.%Harnish%null%1,                Michael%Bergman%null%1,                Joseph D.%Wander%null%2,            Brian K.%Heimbuch%null%2,            Kimberly%Kinney%null%2,            April E.%Lumley%null%2,            Delbert A.%Harnish%null%1,            Michael%Bergman%null%1,            Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,               Delbert A.%Harnish%dharnish@ara.com%1,               Caryn%Lawrence%NULL%1,               Megan%Sandoval-Powers%NULL%1,               Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,                William H.%Wallace%null%1,                Kimberly%Kinney%null%0,                April E.%Lumley%null%0,                Chang-Yu%Wu%null%1,                Myung-Heui%Woo%null%1,                Joseph D.%Wander%null%0,            Brian K.%Heimbuch%null%0,            William H.%Wallace%null%1,            Kimberly%Kinney%null%0,            April E.%Lumley%null%0,            Chang-Yu%Wu%null%1,            Myung-Heui%Woo%null%1,            Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%xref no email%0,       Michael S.%Bergman%xref no email%1,       Debra A.%Novak%xref no email%1,       Kimberly A.%Faulkner%xref no email%1,       Andrew%Palmiero%xref no email%1,       Jeffrey%Powell%xref no email%1,       Ronald E.%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,               Ayush%Gupta%NULL%2,               Anand Kumar%Maurya%NULL%4,               Anand Kumar%Maurya%NULL%0,               Amitava%Mukherjee%NULL%22,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,               Ayush%Gupta%NULL%0,               Anand Kumar%Maurya%NULL%0,               Anand Kumar%Maurya%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,               R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evanly%Vo%xref no email%1,       Samy%Rengasamy%xref no email%2,       Ronald%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Edward%Fisher%xref no email%1,       Samy%Rengasamy%xref no email%0,       Dennis%Viscusi%xref no email%1,       Evanly%Vo%xref no email%1,       Ronald%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,               K.%Kinney%NULL%1,               W.H.%Wallace%NULL%1,               A.E.%Lumley%NULL%1,               B.K.%Heimbuch%NULL%1,               J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,               Chih-Chieh%Chen%NULL%1,               Sheng-Hsiu%Huang%NULL%1,               Chung-Wen%Kuo%NULL%2,               Chung-Wen%Kuo%NULL%0,               Chane-Yu%Lai%NULL%1,               Wen-Yinn%Lin%NULL%1,               Amitava%Mukherjee%NULL%0,               Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,               F.‐C.%Tang%NULL%1,               P.‐C.%Hung%NULL%1,               Z.‐C.%Hua%NULL%1,               C.‐Y.%Lai%cylai511@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1400,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1381,7 +1429,7 @@
         <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1439,7 +1487,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1468,7 +1516,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1497,7 +1545,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1526,7 +1574,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1555,7 +1603,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1584,7 +1632,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1613,7 +1661,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1642,7 +1690,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1671,7 +1719,7 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -1700,7 +1748,7 @@
         <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1729,7 +1777,7 @@
         <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1758,7 +1806,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -1787,7 +1835,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -1816,7 +1864,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/79.xlsx
+++ b/Covid_19_Dataset_and_References/References/79.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="316">
   <si>
     <t>Doi</t>
   </si>
@@ -1058,6 +1058,54 @@
   </si>
   <si>
     <t>[T.‐H.%Lin%NULL%1,               F.‐C.%Tang%NULL%1,               P.‐C.%Hung%NULL%1,               Z.‐C.%Hua%NULL%1,               C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,                Stephen B.%Martin%NULL%1,                Robert E.%Thewlis%NULL%1,                Khachatur%Sarkisian%NULL%1,                Julian O.%Nwoko%NULL%1,                Kenneth R.%Mead%NULL%1,                John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Bergman%xref no email%1,        Dennis J.%Viscusi%xref no email%1,        Brian K.%Heimbuch%xref no email%1,        Joseph D.%Wander%xref no email%1,        Anthony R.%Sambol%xref no email%1,        Ronald E.%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,                Michael S.%Bergman%NULL%1,                Benjamin C.%Eimer%NULL%1,                Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,                Jessica L.%Williams%NULL%1,                Ronald E.%Shaffer%NULL%0,                Tom%Jefferson%NULL%2,                Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,                 Kimberly%Kinney%null%2,                 April E.%Lumley%null%2,                 Delbert A.%Harnish%null%1,                 Michael%Bergman%null%1,                 Joseph D.%Wander%null%2,             Brian K.%Heimbuch%null%2,             Kimberly%Kinney%null%2,             April E.%Lumley%null%2,             Delbert A.%Harnish%null%1,             Michael%Bergman%null%1,             Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,                Delbert A.%Harnish%dharnish@ara.com%1,                Caryn%Lawrence%NULL%1,                Megan%Sandoval-Powers%NULL%1,                Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,                 William H.%Wallace%null%1,                 Kimberly%Kinney%null%0,                 April E.%Lumley%null%0,                 Chang-Yu%Wu%null%1,                 Myung-Heui%Woo%null%1,                 Joseph D.%Wander%null%0,             Brian K.%Heimbuch%null%0,             William H.%Wallace%null%1,             Kimberly%Kinney%null%0,             April E.%Lumley%null%0,             Chang-Yu%Wu%null%1,             Myung-Heui%Woo%null%1,             Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%xref no email%0,        Michael S.%Bergman%xref no email%1,        Debra A.%Novak%xref no email%1,        Kimberly A.%Faulkner%xref no email%1,        Andrew%Palmiero%xref no email%1,        Jeffrey%Powell%xref no email%1,        Ronald E.%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,                Ayush%Gupta%NULL%2,                Anand Kumar%Maurya%NULL%4,                Anand Kumar%Maurya%NULL%0,                Amitava%Mukherjee%NULL%22,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                Ayush%Gupta%NULL%0,                Anand Kumar%Maurya%NULL%0,                Anand Kumar%Maurya%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,                R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evanly%Vo%xref no email%1,        Samy%Rengasamy%xref no email%2,        Ronald%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Edward%Fisher%xref no email%1,        Samy%Rengasamy%xref no email%0,        Dennis%Viscusi%xref no email%1,        Evanly%Vo%xref no email%1,        Ronald%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,                K.%Kinney%NULL%1,                W.H.%Wallace%NULL%1,                A.E.%Lumley%NULL%1,                B.K.%Heimbuch%NULL%1,                J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,                Chih-Chieh%Chen%NULL%1,                Sheng-Hsiu%Huang%NULL%1,                Chung-Wen%Kuo%NULL%2,                Chung-Wen%Kuo%NULL%0,                Chane-Yu%Lai%NULL%1,                Wen-Yinn%Lin%NULL%1,                Amitava%Mukherjee%NULL%0,                Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,                F.‐C.%Tang%NULL%1,                P.‐C.%Hung%NULL%1,                Z.‐C.%Hua%NULL%1,                C.‐Y.%Lai%cylai511@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1448,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1429,7 +1477,7 @@
         <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1487,7 +1535,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1516,7 +1564,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1545,7 +1593,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1574,7 +1622,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1603,7 +1651,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1632,7 +1680,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1661,7 +1709,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1690,7 +1738,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1719,7 +1767,7 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -1748,7 +1796,7 @@
         <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1777,7 +1825,7 @@
         <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1806,7 +1854,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -1835,7 +1883,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -1864,7 +1912,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/79.xlsx
+++ b/Covid_19_Dataset_and_References/References/79.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="348">
   <si>
     <t>Doi</t>
   </si>
@@ -1106,6 +1106,102 @@
   </si>
   <si>
     <t>[T.‐H.%Lin%NULL%1,                F.‐C.%Tang%NULL%1,                P.‐C.%Hung%NULL%1,                Z.‐C.%Hua%NULL%1,                C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,                 Stephen B.%Martin%NULL%1,                 Robert E.%Thewlis%NULL%1,                 Khachatur%Sarkisian%NULL%1,                 Julian O.%Nwoko%NULL%1,                 Kenneth R.%Mead%NULL%1,                 John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Bergman%xref no email%1,         Dennis J.%Viscusi%xref no email%1,         Brian K.%Heimbuch%xref no email%1,         Joseph D.%Wander%xref no email%1,         Anthony R.%Sambol%xref no email%1,         Ronald E.%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,                 Michael S.%Bergman%NULL%1,                 Benjamin C.%Eimer%NULL%1,                 Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,                 Jessica L.%Williams%NULL%1,                 Ronald E.%Shaffer%NULL%0,                 Tom%Jefferson%NULL%2,                 Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,                  Kimberly%Kinney%null%2,                  April E.%Lumley%null%2,                  Delbert A.%Harnish%null%1,                  Michael%Bergman%null%1,                  Joseph D.%Wander%null%2,              Brian K.%Heimbuch%null%2,              Kimberly%Kinney%null%2,              April E.%Lumley%null%2,              Delbert A.%Harnish%null%1,              Michael%Bergman%null%1,              Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,                 Delbert A.%Harnish%dharnish@ara.com%1,                 Caryn%Lawrence%NULL%1,                 Megan%Sandoval-Powers%NULL%1,                 Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,                  William H.%Wallace%null%1,                  Kimberly%Kinney%null%0,                  April E.%Lumley%null%0,                  Chang-Yu%Wu%null%1,                  Myung-Heui%Woo%null%1,                  Joseph D.%Wander%null%0,              Brian K.%Heimbuch%null%0,              William H.%Wallace%null%1,              Kimberly%Kinney%null%0,              April E.%Lumley%null%0,              Chang-Yu%Wu%null%1,              Myung-Heui%Woo%null%1,              Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%xref no email%0,         Michael S.%Bergman%xref no email%1,         Debra A.%Novak%xref no email%1,         Kimberly A.%Faulkner%xref no email%1,         Andrew%Palmiero%xref no email%1,         Jeffrey%Powell%xref no email%1,         Ronald E.%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,                 Ayush%Gupta%NULL%2,                 Anand Kumar%Maurya%NULL%4,                 Anand Kumar%Maurya%NULL%0,                 Amitava%Mukherjee%NULL%22,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                 Ayush%Gupta%NULL%0,                 Anand Kumar%Maurya%NULL%0,                 Anand Kumar%Maurya%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,                 R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evanly%Vo%xref no email%1,         Samy%Rengasamy%xref no email%2,         Ronald%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Edward%Fisher%xref no email%1,         Samy%Rengasamy%xref no email%0,         Dennis%Viscusi%xref no email%1,         Evanly%Vo%xref no email%1,         Ronald%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,                 K.%Kinney%NULL%1,                 W.H.%Wallace%NULL%1,                 A.E.%Lumley%NULL%1,                 B.K.%Heimbuch%NULL%1,                 J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,                 Chih-Chieh%Chen%NULL%1,                 Sheng-Hsiu%Huang%NULL%1,                 Chung-Wen%Kuo%NULL%2,                 Chung-Wen%Kuo%NULL%0,                 Chane-Yu%Lai%NULL%1,                 Wen-Yinn%Lin%NULL%1,                 Amitava%Mukherjee%NULL%0,                 Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,                 F.‐C.%Tang%NULL%1,                 P.‐C.%Hung%NULL%1,                 Z.‐C.%Hua%NULL%1,                 C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,                  Stephen B.%Martin%NULL%1,                  Robert E.%Thewlis%NULL%1,                  Khachatur%Sarkisian%NULL%1,                  Julian O.%Nwoko%NULL%1,                  Kenneth R.%Mead%NULL%1,                  John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Bergman%xref no email%1,          Dennis J.%Viscusi%xref no email%1,          Brian K.%Heimbuch%xref no email%1,          Joseph D.%Wander%xref no email%1,          Anthony R.%Sambol%xref no email%1,          Ronald E.%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,                  Michael S.%Bergman%NULL%1,                  Benjamin C.%Eimer%NULL%1,                  Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,                  Jessica L.%Williams%NULL%1,                  Ronald E.%Shaffer%NULL%0,                  Tom%Jefferson%NULL%2,                  Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,                   Kimberly%Kinney%null%2,                   April E.%Lumley%null%2,                   Delbert A.%Harnish%null%1,                   Michael%Bergman%null%1,                   Joseph D.%Wander%null%2,               Brian K.%Heimbuch%null%2,               Kimberly%Kinney%null%2,               April E.%Lumley%null%2,               Delbert A.%Harnish%null%1,               Michael%Bergman%null%1,               Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,                  Delbert A.%Harnish%dharnish@ara.com%1,                  Caryn%Lawrence%NULL%1,                  Megan%Sandoval-Powers%NULL%1,                  Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,                   William H.%Wallace%null%1,                   Kimberly%Kinney%null%0,                   April E.%Lumley%null%0,                   Chang-Yu%Wu%null%1,                   Myung-Heui%Woo%null%1,                   Joseph D.%Wander%null%0,               Brian K.%Heimbuch%null%0,               William H.%Wallace%null%1,               Kimberly%Kinney%null%0,               April E.%Lumley%null%0,               Chang-Yu%Wu%null%1,               Myung-Heui%Woo%null%1,               Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%xref no email%0,          Michael S.%Bergman%xref no email%1,          Debra A.%Novak%xref no email%1,          Kimberly A.%Faulkner%xref no email%1,          Andrew%Palmiero%xref no email%1,          Jeffrey%Powell%xref no email%1,          Ronald E.%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,                  Ayush%Gupta%NULL%2,                  Anand Kumar%Maurya%NULL%4,                  Anand Kumar%Maurya%NULL%0,                  Amitava%Mukherjee%NULL%22,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                  Ayush%Gupta%NULL%0,                  Anand Kumar%Maurya%NULL%0,                  Anand Kumar%Maurya%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,                  R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evanly%Vo%xref no email%1,          Samy%Rengasamy%xref no email%2,          Ronald%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Edward%Fisher%xref no email%1,          Samy%Rengasamy%xref no email%0,          Dennis%Viscusi%xref no email%1,          Evanly%Vo%xref no email%1,          Ronald%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,                  K.%Kinney%NULL%1,                  W.H.%Wallace%NULL%1,                  A.E.%Lumley%NULL%1,                  B.K.%Heimbuch%NULL%1,                  J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,                  Chih-Chieh%Chen%NULL%1,                  Sheng-Hsiu%Huang%NULL%1,                  Chung-Wen%Kuo%NULL%2,                  Chung-Wen%Kuo%NULL%0,                  Chane-Yu%Lai%NULL%1,                  Wen-Yinn%Lin%NULL%1,                  Amitava%Mukherjee%NULL%0,                  Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,                  F.‐C.%Tang%NULL%1,                  P.‐C.%Hung%NULL%1,                  Z.‐C.%Hua%NULL%1,                  C.‐Y.%Lai%cylai511@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1544,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1477,7 +1573,7 @@
         <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1535,7 +1631,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1564,7 +1660,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1593,7 +1689,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1622,7 +1718,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1651,7 +1747,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1680,7 +1776,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1709,7 +1805,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1738,7 +1834,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1767,7 +1863,7 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -1796,7 +1892,7 @@
         <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1825,7 +1921,7 @@
         <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1854,7 +1950,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -1883,7 +1979,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -1912,7 +2008,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/79.xlsx
+++ b/Covid_19_Dataset_and_References/References/79.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="364">
   <si>
     <t>Doi</t>
   </si>
@@ -1202,6 +1202,54 @@
   </si>
   <si>
     <t>[T.‐H.%Lin%NULL%1,                  F.‐C.%Tang%NULL%1,                  P.‐C.%Hung%NULL%1,                  Z.‐C.%Hua%NULL%1,                  C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,                   Stephen B.%Martin%NULL%1,                   Robert E.%Thewlis%NULL%1,                   Khachatur%Sarkisian%NULL%1,                   Julian O.%Nwoko%NULL%1,                   Kenneth R.%Mead%NULL%1,                   John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Bergman%xref no email%1,           Dennis J.%Viscusi%xref no email%1,           Brian K.%Heimbuch%xref no email%1,           Joseph D.%Wander%xref no email%1,           Anthony R.%Sambol%xref no email%1,           Ronald E.%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,                   Michael S.%Bergman%NULL%1,                   Benjamin C.%Eimer%NULL%1,                   Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,                   Jessica L.%Williams%NULL%1,                   Ronald E.%Shaffer%NULL%0,                   Tom%Jefferson%NULL%2,                   Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,                    Kimberly%Kinney%null%2,                    April E.%Lumley%null%2,                    Delbert A.%Harnish%null%1,                    Michael%Bergman%null%1,                    Joseph D.%Wander%null%2,                Brian K.%Heimbuch%null%2,                Kimberly%Kinney%null%2,                April E.%Lumley%null%2,                Delbert A.%Harnish%null%1,                Michael%Bergman%null%1,                Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,                   Delbert A.%Harnish%dharnish@ara.com%1,                   Caryn%Lawrence%NULL%1,                   Megan%Sandoval-Powers%NULL%1,                   Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,                    William H.%Wallace%null%1,                    Kimberly%Kinney%null%0,                    April E.%Lumley%null%0,                    Chang-Yu%Wu%null%1,                    Myung-Heui%Woo%null%1,                    Joseph D.%Wander%null%0,                Brian K.%Heimbuch%null%0,                William H.%Wallace%null%1,                Kimberly%Kinney%null%0,                April E.%Lumley%null%0,                Chang-Yu%Wu%null%1,                Myung-Heui%Woo%null%1,                Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%xref no email%0,           Michael S.%Bergman%xref no email%1,           Debra A.%Novak%xref no email%1,           Kimberly A.%Faulkner%xref no email%1,           Andrew%Palmiero%xref no email%1,           Jeffrey%Powell%xref no email%1,           Ronald E.%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,                   Ayush%Gupta%NULL%2,                   Anand Kumar%Maurya%NULL%4,                   Anand Kumar%Maurya%NULL%0,                   Amitava%Mukherjee%NULL%22,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                   Ayush%Gupta%NULL%0,                   Anand Kumar%Maurya%NULL%0,                   Anand Kumar%Maurya%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,                   R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evanly%Vo%xref no email%1,           Samy%Rengasamy%xref no email%2,           Ronald%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Edward%Fisher%xref no email%1,           Samy%Rengasamy%xref no email%0,           Dennis%Viscusi%xref no email%1,           Evanly%Vo%xref no email%1,           Ronald%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,                   K.%Kinney%NULL%1,                   W.H.%Wallace%NULL%1,                   A.E.%Lumley%NULL%1,                   B.K.%Heimbuch%NULL%1,                   J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,                   Chih-Chieh%Chen%NULL%1,                   Sheng-Hsiu%Huang%NULL%1,                   Chung-Wen%Kuo%NULL%2,                   Chung-Wen%Kuo%NULL%0,                   Chane-Yu%Lai%NULL%1,                   Wen-Yinn%Lin%NULL%1,                   Amitava%Mukherjee%NULL%0,                   Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,                   F.‐C.%Tang%NULL%1,                   P.‐C.%Hung%NULL%1,                   Z.‐C.%Hua%NULL%1,                   C.‐Y.%Lai%cylai511@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1592,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1573,7 +1621,7 @@
         <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1631,7 +1679,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1660,7 +1708,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1689,7 +1737,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1718,7 +1766,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1747,7 +1795,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1776,7 +1824,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1805,7 +1853,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1834,7 +1882,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1863,7 +1911,7 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -1892,7 +1940,7 @@
         <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1921,7 +1969,7 @@
         <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1950,7 +1998,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -1979,7 +2027,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -2008,7 +2056,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/79.xlsx
+++ b/Covid_19_Dataset_and_References/References/79.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="383">
   <si>
     <t>Doi</t>
   </si>
@@ -1250,6 +1250,63 @@
   </si>
   <si>
     <t>[T.‐H.%Lin%NULL%1,                   F.‐C.%Tang%NULL%1,                   P.‐C.%Hung%NULL%1,                   Z.‐C.%Hua%NULL%1,                   C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,                    Stephen B.%Martin%NULL%1,                    Robert E.%Thewlis%NULL%1,                    Khachatur%Sarkisian%NULL%1,                    Julian O.%Nwoko%NULL%1,                    Kenneth R.%Mead%NULL%1,                    John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Michael S.%Bergman%xref no email%1,            Dennis J.%Viscusi%xref no email%1,            Brian K.%Heimbuch%xref no email%1,            Joseph D.%Wander%xref no email%1,            Anthony R.%Sambol%xref no email%1,            Ronald E.%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,                    Michael S.%Bergman%NULL%1,                    Benjamin C.%Eimer%NULL%1,                    Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,                    Jessica L.%Williams%NULL%1,                    Ronald E.%Shaffer%NULL%0,                    Tom%Jefferson%NULL%2,                    Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,                     Kimberly%Kinney%null%2,                     April E.%Lumley%null%2,                     Delbert A.%Harnish%null%1,                     Michael%Bergman%null%1,                     Joseph D.%Wander%null%2,                 Brian K.%Heimbuch%null%2,                 Kimberly%Kinney%null%2,                 April E.%Lumley%null%2,                 Delbert A.%Harnish%null%1,                 Michael%Bergman%null%1,                 Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,                    Delbert A.%Harnish%dharnish@ara.com%1,                    Caryn%Lawrence%NULL%1,                    Megan%Sandoval-Powers%NULL%1,                    Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,                     William H.%Wallace%null%1,                     Kimberly%Kinney%null%0,                     April E.%Lumley%null%0,                     Chang-Yu%Wu%null%1,                     Myung-Heui%Woo%null%1,                     Joseph D.%Wander%null%0,                 Brian K.%Heimbuch%null%0,                 William H.%Wallace%null%1,                 Kimberly%Kinney%null%0,                 April E.%Lumley%null%0,                 Chang-Yu%Wu%null%1,                 Myung-Heui%Woo%null%1,                 Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%xref no email%0,            Michael S.%Bergman%xref no email%1,            Debra A.%Novak%xref no email%1,            Kimberly A.%Faulkner%xref no email%1,            Andrew%Palmiero%xref no email%1,            Jeffrey%Powell%xref no email%1,            Ronald E.%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,                    Ayush%Gupta%NULL%2,                    Anand Kumar%Maurya%NULL%4,                    Anand Kumar%Maurya%NULL%0,                    Amitava%Mukherjee%NULL%22,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                    Ayush%Gupta%NULL%0,                    Anand Kumar%Maurya%NULL%0,                    Anand Kumar%Maurya%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,                    R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evanly%Vo%xref no email%1,            Samy%Rengasamy%xref no email%2,            Ronald%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Edward%Fisher%xref no email%1,            Samy%Rengasamy%xref no email%0,            Dennis%Viscusi%xref no email%1,            Evanly%Vo%xref no email%1,            Ronald%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,                    K.%Kinney%NULL%1,                    W.H.%Wallace%NULL%1,                    A.E.%Lumley%NULL%1,                    B.K.%Heimbuch%NULL%1,                    J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,                    Chih-Chieh%Chen%NULL%1,                    Sheng-Hsiu%Huang%NULL%1,                    Chung-Wen%Kuo%NULL%2,                    Chung-Wen%Kuo%NULL%0,                    Chane-Yu%Lai%NULL%1,                    Wen-Yinn%Lin%NULL%1,                    Amitava%Mukherjee%NULL%0,                    Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,                    F.‐C.%Tang%NULL%1,                    P.‐C.%Hung%NULL%1,                    Z.‐C.%Hua%NULL%1,                    C.‐Y.%Lai%cylai511@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1649,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1604,7 +1661,7 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1678,7 @@
         <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1633,7 +1690,7 @@
         <v>180</v>
       </c>
       <c r="I3" t="s">
-        <v>126</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4">
@@ -1662,7 +1719,7 @@
         <v>182</v>
       </c>
       <c r="I4" t="s">
-        <v>126</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5">
@@ -1679,7 +1736,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1691,7 +1748,7 @@
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>125</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6">
@@ -1708,7 +1765,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1720,7 +1777,7 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>125</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7">
@@ -1737,7 +1794,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1749,7 +1806,7 @@
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>126</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8">
@@ -1766,7 +1823,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1778,7 +1835,7 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9">
@@ -1795,7 +1852,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1807,7 +1864,7 @@
         <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10">
@@ -1824,7 +1881,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1836,7 +1893,7 @@
         <v>190</v>
       </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11">
@@ -1853,7 +1910,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1865,7 +1922,7 @@
         <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12">
@@ -1882,7 +1939,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1894,7 +1951,7 @@
         <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13">
@@ -1911,7 +1968,7 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -1923,7 +1980,7 @@
         <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14">
@@ -1940,7 +1997,7 @@
         <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1952,7 +2009,7 @@
         <v>197</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15">
@@ -1969,7 +2026,7 @@
         <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1981,7 +2038,7 @@
         <v>180</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16">
@@ -1998,7 +2055,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -2010,7 +2067,7 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17">
@@ -2027,7 +2084,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -2039,7 +2096,7 @@
         <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>125</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18">
@@ -2056,7 +2113,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>
@@ -2068,7 +2125,7 @@
         <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>125</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/79.xlsx
+++ b/Covid_19_Dataset_and_References/References/79.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="399">
   <si>
     <t>Doi</t>
   </si>
@@ -1307,6 +1307,54 @@
   </si>
   <si>
     <t>[T.‐H.%Lin%NULL%1,                    F.‐C.%Tang%NULL%1,                    P.‐C.%Hung%NULL%1,                    Z.‐C.%Hua%NULL%1,                    C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,                     Stephen B.%Martin%NULL%1,                     Robert E.%Thewlis%NULL%1,                     Khachatur%Sarkisian%NULL%1,                     Julian O.%Nwoko%NULL%1,                     Kenneth R.%Mead%NULL%1,                     John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Bergman%xref no email%1,             Dennis J.%Viscusi%xref no email%1,             Brian K.%Heimbuch%xref no email%1,             Joseph D.%Wander%xref no email%1,             Anthony R.%Sambol%xref no email%1,             Ronald E.%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,                     Michael S.%Bergman%NULL%1,                     Benjamin C.%Eimer%NULL%1,                     Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,                     Jessica L.%Williams%NULL%1,                     Ronald E.%Shaffer%NULL%0,                     Tom%Jefferson%NULL%2,                     Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,                      Kimberly%Kinney%null%2,                      April E.%Lumley%null%2,                      Delbert A.%Harnish%null%1,                      Michael%Bergman%null%1,                      Joseph D.%Wander%null%2,                  Brian K.%Heimbuch%null%2,                  Kimberly%Kinney%null%2,                  April E.%Lumley%null%2,                  Delbert A.%Harnish%null%1,                  Michael%Bergman%null%1,                  Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,                     Delbert A.%Harnish%dharnish@ara.com%1,                     Caryn%Lawrence%NULL%1,                     Megan%Sandoval-Powers%NULL%1,                     Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,                      William H.%Wallace%null%1,                      Kimberly%Kinney%null%0,                      April E.%Lumley%null%0,                      Chang-Yu%Wu%null%1,                      Myung-Heui%Woo%null%1,                      Joseph D.%Wander%null%0,                  Brian K.%Heimbuch%null%0,                  William H.%Wallace%null%1,                  Kimberly%Kinney%null%0,                  April E.%Lumley%null%0,                  Chang-Yu%Wu%null%1,                  Myung-Heui%Woo%null%1,                  Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%xref no email%0,             Michael S.%Bergman%xref no email%1,             Debra A.%Novak%xref no email%1,             Kimberly A.%Faulkner%xref no email%1,             Andrew%Palmiero%xref no email%1,             Jeffrey%Powell%xref no email%1,             Ronald E.%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,                     Ayush%Gupta%NULL%2,                     Anand Kumar%Maurya%NULL%4,                     Anand Kumar%Maurya%NULL%0,                     Amitava%Mukherjee%NULL%22,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                     Ayush%Gupta%NULL%0,                     Anand Kumar%Maurya%NULL%0,                     Anand Kumar%Maurya%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,                     R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evanly%Vo%xref no email%1,             Samy%Rengasamy%xref no email%2,             Ronald%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Edward%Fisher%xref no email%1,             Samy%Rengasamy%xref no email%0,             Dennis%Viscusi%xref no email%1,             Evanly%Vo%xref no email%1,             Ronald%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,                     K.%Kinney%NULL%1,                     W.H.%Wallace%NULL%1,                     A.E.%Lumley%NULL%1,                     B.K.%Heimbuch%NULL%1,                     J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,                     Chih-Chieh%Chen%NULL%1,                     Sheng-Hsiu%Huang%NULL%1,                     Chung-Wen%Kuo%NULL%2,                     Chung-Wen%Kuo%NULL%0,                     Chane-Yu%Lai%NULL%1,                     Wen-Yinn%Lin%NULL%1,                     Amitava%Mukherjee%NULL%0,                     Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,                     F.‐C.%Tang%NULL%1,                     P.‐C.%Hung%NULL%1,                     Z.‐C.%Hua%NULL%1,                     C.‐Y.%Lai%cylai511@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1697,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1678,7 +1726,7 @@
         <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1736,7 +1784,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1765,7 +1813,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1794,7 +1842,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1823,7 +1871,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1852,7 +1900,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1881,7 +1929,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1910,7 +1958,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1939,7 +1987,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1968,7 +2016,7 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -1997,7 +2045,7 @@
         <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2026,7 +2074,7 @@
         <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2055,7 +2103,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -2084,7 +2132,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -2113,7 +2161,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/79.xlsx
+++ b/Covid_19_Dataset_and_References/References/79.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="467">
   <si>
     <t>Doi</t>
   </si>
@@ -1355,6 +1355,210 @@
   </si>
   <si>
     <t>[T.‐H.%Lin%NULL%1,                     F.‐C.%Tang%NULL%1,                     P.‐C.%Hung%NULL%1,                     Z.‐C.%Hua%NULL%1,                     C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,                      Stephen B.%Martin%NULL%1,                      Robert E.%Thewlis%NULL%1,                      Khachatur%Sarkisian%NULL%1,                      Julian O.%Nwoko%NULL%1,                      Kenneth R.%Mead%NULL%1,                      John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Bergman%xref no email%0, Dennis J.%Viscusi%xref no email%0, Brian K.%Heimbuch%xref no email%1, Joseph D.%Wander%xref no email%1, Anthony R.%Sambol%xref no email%1, Ronald E.%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: SAGE Publications</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Oxford University Press (OUP)</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%4,                      Michael S.%Bergman%NULL%1,                      Benjamin C.%Eimer%NULL%1,                      Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,                      Jessica L.%Williams%NULL%1,                      Ronald E.%Shaffer%NULL%0,                      Tom%Jefferson%NULL%2,                      Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,                       Kimberly%Kinney%null%2,                       April E.%Lumley%null%2,                       Delbert A.%Harnish%null%1,                       Michael%Bergman%null%1,                       Joseph D.%Wander%null%2,                   Brian K.%Heimbuch%null%2,                   Kimberly%Kinney%null%2,                   April E.%Lumley%null%2,                   Delbert A.%Harnish%null%1,                   Michael%Bergman%null%1,                   Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,                      Delbert A.%Harnish%dharnish@ara.com%1,                      Caryn%Lawrence%NULL%1,                      Megan%Sandoval-Powers%NULL%1,                      Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,                       William H.%Wallace%null%1,                       Kimberly%Kinney%null%0,                       April E.%Lumley%null%0,                       Chang-Yu%Wu%null%1,                       Myung-Heui%Woo%null%1,                       Joseph D.%Wander%null%0,                   Brian K.%Heimbuch%null%0,                   William H.%Wallace%null%1,                   Kimberly%Kinney%null%0,                   April E.%Lumley%null%0,                   Chang-Yu%Wu%null%1,                   Myung-Heui%Woo%null%1,                   Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Informa UK Limited</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,                      Ayush%Gupta%NULL%2,                      Anand Kumar%Maurya%NULL%4,                      Anand Kumar%Maurya%NULL%0,                      Amitava%Mukherjee%NULL%22,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                      Ayush%Gupta%NULL%0,                      Anand Kumar%Maurya%NULL%0,                      Anand Kumar%Maurya%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,                      R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evanly%Vo%xref no email%0, Samy%Rengasamy%xref no email%2, Ronald%Shaffer%xref no email%2]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Society for Microbiology</t>
+  </si>
+  <si>
+    <t>[Edward%Fisher%xref no email%0, Samy%Rengasamy%xref no email%0, Dennis%Viscusi%xref no email%1, Evanly%Vo%xref no email%0, Ronald%Shaffer%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,                      K.%Kinney%NULL%1,                      W.H.%Wallace%NULL%1,                      A.E.%Lumley%NULL%1,                      B.K.%Heimbuch%NULL%1,                      J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,                      Chih-Chieh%Chen%NULL%1,                      Sheng-Hsiu%Huang%NULL%1,                      Chung-Wen%Kuo%NULL%2,                      Chung-Wen%Kuo%NULL%0,                      Chane-Yu%Lai%NULL%1,                      Wen-Yinn%Lin%NULL%1,                      Amitava%Mukherjee%NULL%0,                      Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,                      F.‐C.%Tang%NULL%1,                      P.‐C.%Hung%NULL%1,                      Z.‐C.%Hua%NULL%1,                      C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,                       Stephen B.%Martin%NULL%1,                       Robert E.%Thewlis%NULL%1,                       Khachatur%Sarkisian%NULL%1,                       Julian O.%Nwoko%NULL%1,                       Kenneth R.%Mead%NULL%1,                       John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,                       Michael S.%Bergman%NULL%1,                       Benjamin C.%Eimer%NULL%1,                       Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,                       Jessica L.%Williams%NULL%1,                       Ronald E.%Shaffer%NULL%0,                       Tom%Jefferson%NULL%2,                       Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,                        Kimberly%Kinney%null%2,                        April E.%Lumley%null%2,                        Delbert A.%Harnish%null%1,                        Michael%Bergman%null%1,                        Joseph D.%Wander%null%2,                    Brian K.%Heimbuch%null%2,                    Kimberly%Kinney%null%2,                    April E.%Lumley%null%2,                    Delbert A.%Harnish%null%1,                    Michael%Bergman%null%1,                    Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,                       Delbert A.%Harnish%dharnish@ara.com%1,                       Caryn%Lawrence%NULL%1,                       Megan%Sandoval-Powers%NULL%1,                       Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,                        William H.%Wallace%null%1,                        Kimberly%Kinney%null%0,                        April E.%Lumley%null%0,                        Chang-Yu%Wu%null%1,                        Myung-Heui%Woo%null%1,                        Joseph D.%Wander%null%0,                    Brian K.%Heimbuch%null%0,                    William H.%Wallace%null%1,                    Kimberly%Kinney%null%0,                    April E.%Lumley%null%0,                    Chang-Yu%Wu%null%1,                    Myung-Heui%Woo%null%1,                    Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,                       Ayush%Gupta%NULL%2,                       Anand Kumar%Maurya%NULL%4,                       Anand Kumar%Maurya%NULL%0,                       Amitava%Mukherjee%NULL%22,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                       Ayush%Gupta%NULL%0,                       Anand Kumar%Maurya%NULL%0,                       Anand Kumar%Maurya%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,                       R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,                       K.%Kinney%NULL%1,                       W.H.%Wallace%NULL%1,                       A.E.%Lumley%NULL%1,                       B.K.%Heimbuch%NULL%1,                       J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,                       Chih-Chieh%Chen%NULL%1,                       Sheng-Hsiu%Huang%NULL%1,                       Chung-Wen%Kuo%NULL%2,                       Chung-Wen%Kuo%NULL%0,                       Chane-Yu%Lai%NULL%1,                       Wen-Yinn%Lin%NULL%1,                       Amitava%Mukherjee%NULL%0,                       Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,                       F.‐C.%Tang%NULL%1,                       P.‐C.%Hung%NULL%1,                       Z.‐C.%Hua%NULL%1,                       C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,                        Stephen B.%Martin%NULL%1,                        Robert E.%Thewlis%NULL%1,                        Khachatur%Sarkisian%NULL%1,                        Julian O.%Nwoko%NULL%1,                        Kenneth R.%Mead%NULL%1,                        John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,                        Michael S.%Bergman%NULL%1,                        Benjamin C.%Eimer%NULL%1,                        Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,                        Jessica L.%Williams%NULL%1,                        Ronald E.%Shaffer%NULL%0,                        Tom%Jefferson%NULL%2,                        Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,                         Kimberly%Kinney%null%2,                         April E.%Lumley%null%2,                         Delbert A.%Harnish%null%1,                         Michael%Bergman%null%1,                         Joseph D.%Wander%null%2,                     Brian K.%Heimbuch%null%2,                     Kimberly%Kinney%null%2,                     April E.%Lumley%null%2,                     Delbert A.%Harnish%null%1,                     Michael%Bergman%null%1,                     Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,                        Delbert A.%Harnish%dharnish@ara.com%1,                        Caryn%Lawrence%NULL%1,                        Megan%Sandoval-Powers%NULL%1,                        Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,                         William H.%Wallace%null%1,                         Kimberly%Kinney%null%0,                         April E.%Lumley%null%0,                         Chang-Yu%Wu%null%1,                         Myung-Heui%Woo%null%1,                         Joseph D.%Wander%null%0,                     Brian K.%Heimbuch%null%0,                     William H.%Wallace%null%1,                     Kimberly%Kinney%null%0,                     April E.%Lumley%null%0,                     Chang-Yu%Wu%null%1,                     Myung-Heui%Woo%null%1,                     Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,                        Ayush%Gupta%NULL%2,                        Anand Kumar%Maurya%NULL%4,                        Anand Kumar%Maurya%NULL%0,                        Amitava%Mukherjee%NULL%22,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                        Ayush%Gupta%NULL%0,                        Anand Kumar%Maurya%NULL%0,                        Anand Kumar%Maurya%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,                        R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,                        K.%Kinney%NULL%1,                        W.H.%Wallace%NULL%1,                        A.E.%Lumley%NULL%1,                        B.K.%Heimbuch%NULL%1,                        J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,                        Chih-Chieh%Chen%NULL%1,                        Sheng-Hsiu%Huang%NULL%1,                        Chung-Wen%Kuo%NULL%2,                        Chung-Wen%Kuo%NULL%0,                        Chane-Yu%Lai%NULL%1,                        Wen-Yinn%Lin%NULL%1,                        Amitava%Mukherjee%NULL%0,                        Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,                        F.‐C.%Tang%NULL%1,                        P.‐C.%Hung%NULL%1,                        Z.‐C.%Hua%NULL%1,                        C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,                         Stephen B.%Martin%NULL%1,                         Robert E.%Thewlis%NULL%1,                         Khachatur%Sarkisian%NULL%1,                         Julian O.%Nwoko%NULL%1,                         Kenneth R.%Mead%NULL%1,                         John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,                         Michael S.%Bergman%NULL%1,                         Benjamin C.%Eimer%NULL%1,                         Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,                         Jessica L.%Williams%NULL%1,                         Ronald E.%Shaffer%NULL%0,                         Tom%Jefferson%NULL%2,                         Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,                          Kimberly%Kinney%null%2,                          April E.%Lumley%null%2,                          Delbert A.%Harnish%null%1,                          Michael%Bergman%null%1,                          Joseph D.%Wander%null%2,                      Brian K.%Heimbuch%null%2,                      Kimberly%Kinney%null%2,                      April E.%Lumley%null%2,                      Delbert A.%Harnish%null%1,                      Michael%Bergman%null%1,                      Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,                         Delbert A.%Harnish%dharnish@ara.com%1,                         Caryn%Lawrence%NULL%1,                         Megan%Sandoval-Powers%NULL%1,                         Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,                          William H.%Wallace%null%1,                          Kimberly%Kinney%null%0,                          April E.%Lumley%null%0,                          Chang-Yu%Wu%null%1,                          Myung-Heui%Woo%null%1,                          Joseph D.%Wander%null%0,                      Brian K.%Heimbuch%null%0,                      William H.%Wallace%null%1,                      Kimberly%Kinney%null%0,                      April E.%Lumley%null%0,                      Chang-Yu%Wu%null%1,                      Myung-Heui%Woo%null%1,                      Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,                         Ayush%Gupta%NULL%2,                         Anand Kumar%Maurya%NULL%4,                         Anand Kumar%Maurya%NULL%0,                         Amitava%Mukherjee%NULL%22,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                         Ayush%Gupta%NULL%0,                         Anand Kumar%Maurya%NULL%0,                         Anand Kumar%Maurya%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,                         R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,                         K.%Kinney%NULL%1,                         W.H.%Wallace%NULL%1,                         A.E.%Lumley%NULL%1,                         B.K.%Heimbuch%NULL%1,                         J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,                         Chih-Chieh%Chen%NULL%1,                         Sheng-Hsiu%Huang%NULL%1,                         Chung-Wen%Kuo%NULL%2,                         Chung-Wen%Kuo%NULL%0,                         Chane-Yu%Lai%NULL%1,                         Wen-Yinn%Lin%NULL%1,                         Amitava%Mukherjee%NULL%0,                         Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,                         F.‐C.%Tang%NULL%1,                         P.‐C.%Hung%NULL%1,                         Z.‐C.%Hua%NULL%1,                         C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,                          Stephen B.%Martin%NULL%1,                          Robert E.%Thewlis%NULL%1,                          Khachatur%Sarkisian%NULL%1,                          Julian O.%Nwoko%NULL%1,                          Kenneth R.%Mead%NULL%1,                          John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,                          Michael S.%Bergman%NULL%1,                          Benjamin C.%Eimer%NULL%1,                          Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,                          Jessica L.%Williams%NULL%1,                          Ronald E.%Shaffer%NULL%0,                          Tom%Jefferson%NULL%2,                          Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,                           Kimberly%Kinney%null%2,                           April E.%Lumley%null%2,                           Delbert A.%Harnish%null%1,                           Michael%Bergman%null%1,                           Joseph D.%Wander%null%2,                       Brian K.%Heimbuch%null%2,                       Kimberly%Kinney%null%2,                       April E.%Lumley%null%2,                       Delbert A.%Harnish%null%1,                       Michael%Bergman%null%1,                       Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,                          Delbert A.%Harnish%dharnish@ara.com%1,                          Caryn%Lawrence%NULL%1,                          Megan%Sandoval-Powers%NULL%1,                          Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,                           William H.%Wallace%null%1,                           Kimberly%Kinney%null%0,                           April E.%Lumley%null%0,                           Chang-Yu%Wu%null%1,                           Myung-Heui%Woo%null%1,                           Joseph D.%Wander%null%0,                       Brian K.%Heimbuch%null%0,                       William H.%Wallace%null%1,                       Kimberly%Kinney%null%0,                       April E.%Lumley%null%0,                       Chang-Yu%Wu%null%1,                       Myung-Heui%Woo%null%1,                       Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,                          Ayush%Gupta%NULL%2,                          Anand Kumar%Maurya%NULL%4,                          Anand Kumar%Maurya%NULL%0,                          Amitava%Mukherjee%NULL%22,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                          Ayush%Gupta%NULL%0,                          Anand Kumar%Maurya%NULL%0,                          Anand Kumar%Maurya%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,                          R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,                          K.%Kinney%NULL%1,                          W.H.%Wallace%NULL%1,                          A.E.%Lumley%NULL%1,                          B.K.%Heimbuch%NULL%1,                          J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,                          Chih-Chieh%Chen%NULL%1,                          Sheng-Hsiu%Huang%NULL%1,                          Chung-Wen%Kuo%NULL%2,                          Chung-Wen%Kuo%NULL%0,                          Chane-Yu%Lai%NULL%1,                          Wen-Yinn%Lin%NULL%1,                          Amitava%Mukherjee%NULL%0,                          Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,                          F.‐C.%Tang%NULL%1,                          P.‐C.%Hung%NULL%1,                          Z.‐C.%Hua%NULL%1,                          C.‐Y.%Lai%cylai511@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1682,6 +1886,9 @@
       <c r="I1" t="s">
         <v>123</v>
       </c>
+      <c r="J1" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1697,7 +1904,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>383</v>
+        <v>455</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1710,6 +1917,9 @@
       </c>
       <c r="I2" t="s">
         <v>365</v>
+      </c>
+      <c r="J2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -1726,7 +1936,7 @@
         <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>384</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1738,7 +1948,10 @@
         <v>180</v>
       </c>
       <c r="I3" t="s">
-        <v>367</v>
+        <v>126</v>
+      </c>
+      <c r="J3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="4">
@@ -1767,7 +1980,10 @@
         <v>182</v>
       </c>
       <c r="I4" t="s">
-        <v>367</v>
+        <v>126</v>
+      </c>
+      <c r="J4" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="5">
@@ -1784,7 +2000,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1797,6 +2013,9 @@
       </c>
       <c r="I5" t="s">
         <v>365</v>
+      </c>
+      <c r="J5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -1813,7 +2032,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1826,6 +2045,9 @@
       </c>
       <c r="I6" t="s">
         <v>365</v>
+      </c>
+      <c r="J6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -1842,7 +2064,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>387</v>
+        <v>458</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1855,6 +2077,9 @@
       </c>
       <c r="I7" t="s">
         <v>367</v>
+      </c>
+      <c r="J7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +2096,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>388</v>
+        <v>459</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1884,6 +2109,9 @@
       </c>
       <c r="I8" t="s">
         <v>372</v>
+      </c>
+      <c r="J8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -1900,7 +2128,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>389</v>
+        <v>460</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1913,6 +2141,9 @@
       </c>
       <c r="I9" t="s">
         <v>367</v>
+      </c>
+      <c r="J9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -1929,7 +2160,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>390</v>
+        <v>259</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1941,7 +2172,10 @@
         <v>190</v>
       </c>
       <c r="I10" t="s">
-        <v>367</v>
+        <v>126</v>
+      </c>
+      <c r="J10" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="11">
@@ -1958,7 +2192,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>391</v>
+        <v>461</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1971,6 +2205,9 @@
       </c>
       <c r="I11" t="s">
         <v>365</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -1987,7 +2224,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>392</v>
+        <v>462</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -2000,6 +2237,9 @@
       </c>
       <c r="I12" t="s">
         <v>365</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -2016,7 +2256,7 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>393</v>
+        <v>463</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -2029,6 +2269,9 @@
       </c>
       <c r="I13" t="s">
         <v>365</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -2045,7 +2288,7 @@
         <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>394</v>
+        <v>263</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2057,7 +2300,10 @@
         <v>197</v>
       </c>
       <c r="I14" t="s">
-        <v>367</v>
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="15">
@@ -2074,7 +2320,7 @@
         <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>395</v>
+        <v>264</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2086,7 +2332,10 @@
         <v>180</v>
       </c>
       <c r="I15" t="s">
-        <v>367</v>
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="16">
@@ -2103,7 +2352,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -2116,6 +2365,9 @@
       </c>
       <c r="I16" t="s">
         <v>365</v>
+      </c>
+      <c r="J16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17">
@@ -2132,7 +2384,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -2145,6 +2397,9 @@
       </c>
       <c r="I17" t="s">
         <v>365</v>
+      </c>
+      <c r="J17" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="18">
@@ -2161,7 +2416,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>
@@ -2174,6 +2429,9 @@
       </c>
       <c r="I18" t="s">
         <v>365</v>
+      </c>
+      <c r="J18" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/79.xlsx
+++ b/Covid_19_Dataset_and_References/References/79.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="491">
   <si>
     <t>Doi</t>
   </si>
@@ -1559,6 +1559,78 @@
   </si>
   <si>
     <t>[T.‐H.%Lin%NULL%1,                          F.‐C.%Tang%NULL%1,                          P.‐C.%Hung%NULL%1,                          Z.‐C.%Hua%NULL%1,                          C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,                           Stephen B.%Martin%NULL%1,                           Robert E.%Thewlis%NULL%1,                           Khachatur%Sarkisian%NULL%1,                           Julian O.%Nwoko%NULL%1,                           Kenneth R.%Mead%NULL%1,                           John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,                           Michael S.%Bergman%NULL%1,                           Benjamin C.%Eimer%NULL%1,                           Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,                           Jessica L.%Williams%NULL%1,                           Ronald E.%Shaffer%NULL%0,                           Tom%Jefferson%NULL%2,                           Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,                            Kimberly%Kinney%null%2,                            April E.%Lumley%null%2,                            Delbert A.%Harnish%null%1,                            Michael%Bergman%null%1,                            Joseph D.%Wander%null%2,                        Brian K.%Heimbuch%null%2,                        Kimberly%Kinney%null%2,                        April E.%Lumley%null%2,                        Delbert A.%Harnish%null%1,                        Michael%Bergman%null%1,                        Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,                           Delbert A.%Harnish%dharnish@ara.com%1,                           Caryn%Lawrence%NULL%1,                           Megan%Sandoval-Powers%NULL%1,                           Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,                            William H.%Wallace%null%1,                            Kimberly%Kinney%null%0,                            April E.%Lumley%null%0,                            Chang-Yu%Wu%null%1,                            Myung-Heui%Woo%null%1,                            Joseph D.%Wander%null%0,                        Brian K.%Heimbuch%null%0,                        William H.%Wallace%null%1,                        Kimberly%Kinney%null%0,                        April E.%Lumley%null%0,                        Chang-Yu%Wu%null%1,                        Myung-Heui%Woo%null%1,                        Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,                           Ayush%Gupta%NULL%2,                           Anand Kumar%Maurya%NULL%4,                           Anand Kumar%Maurya%NULL%0,                           Amitava%Mukherjee%NULL%22,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                           Ayush%Gupta%NULL%0,                           Anand Kumar%Maurya%NULL%0,                           Anand Kumar%Maurya%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,                           R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,                           K.%Kinney%NULL%1,                           W.H.%Wallace%NULL%1,                           A.E.%Lumley%NULL%1,                           B.K.%Heimbuch%NULL%1,                           J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,                           Chih-Chieh%Chen%NULL%1,                           Sheng-Hsiu%Huang%NULL%1,                           Chung-Wen%Kuo%NULL%2,                           Chung-Wen%Kuo%NULL%0,                           Chane-Yu%Lai%NULL%1,                           Wen-Yinn%Lin%NULL%1,                           Amitava%Mukherjee%NULL%0,                           Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,                           F.‐C.%Tang%NULL%1,                           P.‐C.%Hung%NULL%1,                           Z.‐C.%Hua%NULL%1,                           C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,                            Stephen B.%Martin%NULL%1,                            Robert E.%Thewlis%NULL%1,                            Khachatur%Sarkisian%NULL%1,                            Julian O.%Nwoko%NULL%1,                            Kenneth R.%Mead%NULL%1,                            John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,                            Michael S.%Bergman%NULL%1,                            Benjamin C.%Eimer%NULL%1,                            Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,                            Jessica L.%Williams%NULL%1,                            Ronald E.%Shaffer%NULL%0,                            Tom%Jefferson%NULL%2,                            Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%2,                             Kimberly%Kinney%null%2,                             April E.%Lumley%null%2,                             Delbert A.%Harnish%null%1,                             Michael%Bergman%null%1,                             Joseph D.%Wander%null%2,                         Brian K.%Heimbuch%null%2,                         Kimberly%Kinney%null%2,                         April E.%Lumley%null%2,                         Delbert A.%Harnish%null%1,                         Michael%Bergman%null%1,                         Joseph D.%Wander%null%2]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,                            Delbert A.%Harnish%dharnish@ara.com%1,                            Caryn%Lawrence%NULL%1,                            Megan%Sandoval-Powers%NULL%1,                            Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Brian K.%Heimbuch%null%0,                             William H.%Wallace%null%1,                             Kimberly%Kinney%null%0,                             April E.%Lumley%null%0,                             Chang-Yu%Wu%null%1,                             Myung-Heui%Woo%null%1,                             Joseph D.%Wander%null%0,                         Brian K.%Heimbuch%null%0,                         William H.%Wallace%null%1,                         Kimberly%Kinney%null%0,                         April E.%Lumley%null%0,                         Chang-Yu%Wu%null%1,                         Myung-Heui%Woo%null%1,                         Joseph D.%Wander%null%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%2,                            Ayush%Gupta%NULL%2,                            Anand Kumar%Maurya%NULL%4,                            Anand Kumar%Maurya%NULL%0,                            Amitava%Mukherjee%NULL%22,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                            Ayush%Gupta%NULL%0,                            Anand Kumar%Maurya%NULL%0,                            Anand Kumar%Maurya%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,                            R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,                            K.%Kinney%NULL%1,                            W.H.%Wallace%NULL%1,                            A.E.%Lumley%NULL%1,                            B.K.%Heimbuch%NULL%1,                            J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,                            Chih-Chieh%Chen%NULL%1,                            Sheng-Hsiu%Huang%NULL%1,                            Chung-Wen%Kuo%NULL%2,                            Chung-Wen%Kuo%NULL%0,                            Chane-Yu%Lai%NULL%1,                            Wen-Yinn%Lin%NULL%1,                            Amitava%Mukherjee%NULL%0,                            Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,                            F.‐C.%Tang%NULL%1,                            P.‐C.%Hung%NULL%1,                            Z.‐C.%Hua%NULL%1,                            C.‐Y.%Lai%cylai511@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1976,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1936,7 +2008,7 @@
         <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2000,7 +2072,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -2032,7 +2104,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -2064,7 +2136,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2096,7 +2168,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -2128,7 +2200,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -2160,7 +2232,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -2192,7 +2264,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -2224,7 +2296,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -2256,7 +2328,7 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -2288,7 +2360,7 @@
         <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2320,7 +2392,7 @@
         <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2352,7 +2424,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -2384,7 +2456,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -2416,7 +2488,7 @@
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>
